--- a/JupyterNotebooks/AveragedIntensities-SRP/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/GammaFiber2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -581,7 +602,7 @@
         <v>0.979963976945245</v>
       </c>
       <c r="G3">
-        <v>0.8635878962536023</v>
+        <v>0.8635951008645533</v>
       </c>
       <c r="H3">
         <v>1.269221902017291</v>
@@ -596,31 +617,34 @@
         <v>0.979963976945245</v>
       </c>
       <c r="L3">
-        <v>0.9460086455331412</v>
+        <v>1.080943804034582</v>
       </c>
       <c r="M3">
         <v>0.9460086455331412</v>
       </c>
       <c r="N3">
-        <v>0.9185350624399616</v>
+        <v>0.9460086455331412</v>
       </c>
       <c r="O3">
-        <v>0.9573270893371758</v>
+        <v>0.9185374639769451</v>
       </c>
       <c r="P3">
         <v>0.9573270893371758</v>
       </c>
       <c r="Q3">
-        <v>0.9629863112391931</v>
+        <v>0.9573270893371758</v>
       </c>
       <c r="R3">
         <v>0.9629863112391931</v>
       </c>
       <c r="S3">
-        <v>1.010166906820365</v>
+        <v>0.9629863112391931</v>
+      </c>
+      <c r="T3">
+        <v>1.010168107588857</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -634,7 +658,7 @@
         <v>0.9697574357148487</v>
       </c>
       <c r="E4">
-        <v>1.002942427745665</v>
+        <v>1.002938265895954</v>
       </c>
       <c r="F4">
         <v>1.012782799943607</v>
@@ -655,31 +679,34 @@
         <v>1.012782799943607</v>
       </c>
       <c r="L4">
-        <v>0.9863499317302569</v>
+        <v>1.002938265895954</v>
       </c>
       <c r="M4">
-        <v>0.9863499317302569</v>
+        <v>0.9863478508054013</v>
       </c>
       <c r="N4">
-        <v>0.9847021014727999</v>
+        <v>0.9863478508054013</v>
       </c>
       <c r="O4">
-        <v>0.9951608878013735</v>
+        <v>0.9847007141895628</v>
       </c>
       <c r="P4">
-        <v>0.9951608878013735</v>
+        <v>0.9951595005181364</v>
       </c>
       <c r="Q4">
-        <v>0.9995663658369317</v>
+        <v>0.9951595005181364</v>
       </c>
       <c r="R4">
-        <v>0.9995663658369317</v>
+        <v>0.9995653253745039</v>
       </c>
       <c r="S4">
-        <v>0.9964833221096399</v>
+        <v>0.9995653253745039</v>
+      </c>
+      <c r="T4">
+        <v>0.9964826284680214</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -714,31 +741,34 @@
         <v>1.027813335103584</v>
       </c>
       <c r="L5">
-        <v>0.9757379797144801</v>
+        <v>1.004563344736567</v>
       </c>
       <c r="M5">
         <v>0.9757379797144801</v>
       </c>
       <c r="N5">
+        <v>0.9757379797144801</v>
+      </c>
+      <c r="O5">
         <v>0.9736346103858806</v>
-      </c>
-      <c r="O5">
-        <v>0.9930964315108479</v>
       </c>
       <c r="P5">
         <v>0.9930964315108479</v>
       </c>
       <c r="Q5">
-        <v>1.001775657409032</v>
+        <v>0.9930964315108479</v>
       </c>
       <c r="R5">
         <v>1.001775657409032</v>
       </c>
       <c r="S5">
+        <v>1.001775657409032</v>
+      </c>
+      <c r="T5">
         <v>0.995172627062054</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,22 +776,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9944594720932309</v>
+        <v>0.9944534342004751</v>
       </c>
       <c r="D6">
         <v>0.9958154028686548</v>
       </c>
       <c r="E6">
-        <v>1.001991066011111</v>
+        <v>1.001971733957365</v>
       </c>
       <c r="F6">
-        <v>0.9944594720932309</v>
+        <v>0.9944534342004751</v>
       </c>
       <c r="G6">
-        <v>0.9937572462942542</v>
+        <v>0.9938266379006935</v>
       </c>
       <c r="H6">
-        <v>1.006810590891225</v>
+        <v>1.006810240978751</v>
       </c>
       <c r="I6">
         <v>0.9998026255670467</v>
@@ -770,34 +800,37 @@
         <v>0.9958154028686548</v>
       </c>
       <c r="K6">
-        <v>0.9944594720932309</v>
+        <v>0.9944534342004751</v>
       </c>
       <c r="L6">
-        <v>0.998903234439883</v>
+        <v>1.001971733957365</v>
       </c>
       <c r="M6">
-        <v>0.998903234439883</v>
+        <v>0.9988935684130097</v>
       </c>
       <c r="N6">
-        <v>0.9971879050580067</v>
+        <v>0.9988935684130097</v>
       </c>
       <c r="O6">
-        <v>0.9974219803243324</v>
+        <v>0.9972045915755711</v>
       </c>
       <c r="P6">
-        <v>0.9974219803243324</v>
+        <v>0.9974135236754981</v>
       </c>
       <c r="Q6">
-        <v>0.996681353266557</v>
+        <v>0.9974135236754981</v>
       </c>
       <c r="R6">
-        <v>0.996681353266557</v>
+        <v>0.9966735013067424</v>
       </c>
       <c r="S6">
-        <v>0.9987727339542539</v>
+        <v>0.9966735013067424</v>
+      </c>
+      <c r="T6">
+        <v>0.998780012578831</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.123680682683527</v>
+      </c>
+      <c r="D7">
+        <v>1.071131932654104</v>
+      </c>
+      <c r="E7">
+        <v>0.89977944327225</v>
+      </c>
+      <c r="F7">
+        <v>1.123680682683527</v>
+      </c>
+      <c r="G7">
+        <v>1.096421016179714</v>
+      </c>
+      <c r="H7">
+        <v>0.6790881228049145</v>
+      </c>
+      <c r="I7">
+        <v>0.9566655684545746</v>
+      </c>
+      <c r="J7">
+        <v>1.071131932654104</v>
+      </c>
+      <c r="K7">
+        <v>1.123680682683527</v>
+      </c>
+      <c r="L7">
+        <v>0.89977944327225</v>
+      </c>
+      <c r="M7">
+        <v>0.9854556879631768</v>
+      </c>
+      <c r="N7">
+        <v>0.9854556879631768</v>
+      </c>
+      <c r="O7">
+        <v>1.022444130702022</v>
+      </c>
+      <c r="P7">
+        <v>1.031530686203294</v>
+      </c>
+      <c r="Q7">
+        <v>1.031530686203294</v>
+      </c>
+      <c r="R7">
+        <v>1.054568185323352</v>
+      </c>
+      <c r="S7">
+        <v>1.054568185323352</v>
+      </c>
+      <c r="T7">
+        <v>0.9711277943415139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.9137451376426987</v>
+      </c>
+      <c r="D8">
+        <v>1.098081526114546</v>
+      </c>
+      <c r="E8">
+        <v>1.011997085000857</v>
+      </c>
+      <c r="F8">
+        <v>0.9137451376426987</v>
+      </c>
+      <c r="G8">
+        <v>1.022834660439487</v>
+      </c>
+      <c r="H8">
+        <v>1.043107131257005</v>
+      </c>
+      <c r="I8">
+        <v>0.9809623658855062</v>
+      </c>
+      <c r="J8">
+        <v>1.098081526114546</v>
+      </c>
+      <c r="K8">
+        <v>0.9137451376426987</v>
+      </c>
+      <c r="L8">
+        <v>1.011997085000857</v>
+      </c>
+      <c r="M8">
+        <v>1.055039305557702</v>
+      </c>
+      <c r="N8">
+        <v>1.055039305557702</v>
+      </c>
+      <c r="O8">
+        <v>1.04430442385163</v>
+      </c>
+      <c r="P8">
+        <v>1.007941249586034</v>
+      </c>
+      <c r="Q8">
+        <v>1.007941249586034</v>
+      </c>
+      <c r="R8">
+        <v>0.9843922216002001</v>
+      </c>
+      <c r="S8">
+        <v>0.9843922216002001</v>
+      </c>
+      <c r="T8">
+        <v>1.011787984390017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.41</v>
+      </c>
+      <c r="D9">
+        <v>0.35</v>
+      </c>
+      <c r="E9">
+        <v>1.06</v>
+      </c>
+      <c r="F9">
+        <v>1.41</v>
+      </c>
+      <c r="G9">
+        <v>0.67</v>
+      </c>
+      <c r="H9">
+        <v>1.11</v>
+      </c>
+      <c r="I9">
+        <v>1.16</v>
+      </c>
+      <c r="J9">
+        <v>0.35</v>
+      </c>
+      <c r="K9">
+        <v>1.41</v>
+      </c>
+      <c r="L9">
+        <v>1.06</v>
+      </c>
+      <c r="M9">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.6933333333333334</v>
+      </c>
+      <c r="P9">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R9">
+        <v>1.0575</v>
+      </c>
+      <c r="S9">
+        <v>1.0575</v>
+      </c>
+      <c r="T9">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.41</v>
+      </c>
+      <c r="D10">
+        <v>0.35</v>
+      </c>
+      <c r="E10">
+        <v>1.06</v>
+      </c>
+      <c r="F10">
+        <v>1.41</v>
+      </c>
+      <c r="G10">
+        <v>0.67</v>
+      </c>
+      <c r="H10">
+        <v>1.11</v>
+      </c>
+      <c r="I10">
+        <v>1.16</v>
+      </c>
+      <c r="J10">
+        <v>0.35</v>
+      </c>
+      <c r="K10">
+        <v>1.41</v>
+      </c>
+      <c r="L10">
+        <v>1.06</v>
+      </c>
+      <c r="M10">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.6933333333333334</v>
+      </c>
+      <c r="P10">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R10">
+        <v>1.0575</v>
+      </c>
+      <c r="S10">
+        <v>1.0575</v>
+      </c>
+      <c r="T10">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>0.9957089400709752</v>
       </c>
-      <c r="D7">
+      <c r="D11">
         <v>0.998070915829805</v>
       </c>
-      <c r="E7">
-        <v>1.000374582478758</v>
-      </c>
-      <c r="F7">
+      <c r="E11">
+        <v>1.000365799097384</v>
+      </c>
+      <c r="F11">
         <v>0.9957089400709752</v>
       </c>
-      <c r="G7">
-        <v>0.9958305039463997</v>
-      </c>
-      <c r="H7">
-        <v>1.00115640246909</v>
-      </c>
-      <c r="I7">
+      <c r="G11">
+        <v>0.9958420769644978</v>
+      </c>
+      <c r="H11">
+        <v>1.001156402469091</v>
+      </c>
+      <c r="I11">
         <v>0.9987901497843226</v>
       </c>
-      <c r="J7">
+      <c r="J11">
         <v>0.998070915829805</v>
       </c>
-      <c r="K7">
+      <c r="K11">
         <v>0.9957089400709752</v>
       </c>
-      <c r="L7">
-        <v>0.9992227491542813</v>
-      </c>
-      <c r="M7">
-        <v>0.9992227491542813</v>
-      </c>
-      <c r="N7">
-        <v>0.9980920007516542</v>
-      </c>
-      <c r="O7">
-        <v>0.998051479459846</v>
-      </c>
-      <c r="P7">
-        <v>0.998051479459846</v>
-      </c>
-      <c r="Q7">
-        <v>0.9974658446126283</v>
-      </c>
-      <c r="R7">
-        <v>0.9974658446126283</v>
-      </c>
-      <c r="S7">
-        <v>0.998321915763225</v>
+      <c r="L11">
+        <v>1.000365799097384</v>
+      </c>
+      <c r="M11">
+        <v>0.9992183574635942</v>
+      </c>
+      <c r="N11">
+        <v>0.9992183574635942</v>
+      </c>
+      <c r="O11">
+        <v>0.998092930630562</v>
+      </c>
+      <c r="P11">
+        <v>0.9980485516660546</v>
+      </c>
+      <c r="Q11">
+        <v>0.9980485516660546</v>
+      </c>
+      <c r="R11">
+        <v>0.9974636487672848</v>
+      </c>
+      <c r="S11">
+        <v>0.9974636487672848</v>
+      </c>
+      <c r="T11">
+        <v>0.9983223807026791</v>
       </c>
     </row>
   </sheetData>
